--- a/数据整理/stocks/其他/2330-台积电.xlsx
+++ b/数据整理/stocks/其他/2330-台积电.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -821,4 +822,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010671</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9636</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>262001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.71</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9636</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>040021</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安大中华升级股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/2330-台积电.xlsx
+++ b/数据整理/stocks/其他/2330-台积电.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -992,4 +993,288 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010671</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4882</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>262001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.91</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4882</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>457001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国富亚洲机会股票 (QDII)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2109</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>040021</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安大中华升级股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.77</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>050015</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时大中华亚太精选股票(QDII) -人民币</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000927</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时大中华亚太精选股票(QDII) - 美元现汇</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/2330-台积电.xlsx
+++ b/数据整理/stocks/其他/2330-台积电.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1277,4 +1278,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/2330-台积电.xlsx
+++ b/数据整理/stocks/其他/2330-台积电.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1286,7 +1287,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1297,17 +1298,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1317,14 +1338,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.24</v>
+          <t>010671</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>75.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7074</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1333,14 +1376,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>262001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>75.74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7074</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.95</v>
       </c>
     </row>
     <row r="4">
@@ -1349,14 +1414,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.92</v>
+          <t>457001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国富亚洲机会股票 (QDII)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.13</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2447</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1365,13 +1452,227 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>040021</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安大中华升级股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000927</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时大中华亚太精选股票(QDII) - 美元现汇</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>050015</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时大中华亚太精选股票(QDII) -人民币</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>4</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.97</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/2330-台积电.xlsx
+++ b/数据整理/stocks/其他/2330-台积电.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1571,7 +1572,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1582,17 +1583,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1602,14 +1623,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.71</v>
+          <t>010671</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8487</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1618,14 +1661,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.24</v>
+          <t>262001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.35</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8487</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1634,14 +1699,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.95</v>
+          <t>000927</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时大中华亚太精选股票(QDII) - 美元现汇</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1650,14 +1737,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.92</v>
+          <t>050015</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时大中华亚太精选股票(QDII) -人民币</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -1666,13 +1775,167 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>040021</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安大中华升级股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.37</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>4</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.97</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/2330-台积电.xlsx
+++ b/数据整理/stocks/其他/2330-台积电.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1818,7 +1819,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1829,17 +1830,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1849,14 +1870,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.74</v>
+          <t>010671</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.95</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7085</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1865,14 +1908,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.71</v>
+          <t>262001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.21</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.95</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7085</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1881,14 +1946,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.24</v>
+          <t>000927</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时大中华亚太精选股票(QDII) - 美元现汇</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1897,14 +1984,136 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>050015</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时大中华亚太精选股票(QDII) -人民币</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>1.95</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="6">
@@ -1913,14 +2122,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="7">
@@ -1929,13 +2138,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>4</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.97</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/2330-台积电.xlsx
+++ b/数据整理/stocks/其他/2330-台积电.xlsx
@@ -6,14 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,205 +457,145 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010671</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>景顺长城大中华混合(QDII)美元</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>5.69</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.90</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.64</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.3778</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>262001</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>景顺长城大中华混合(QDII)</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>5.69</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.90</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.64</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.3778</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.74</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>457001</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国富亚洲机会股票 (QDII)</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>7.17</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.66</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1871</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>040021</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华安大中华升级股票(QDII)</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.47</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>6.71</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0295</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
+      <c r="D6" t="n">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.97</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -665,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -686,7 +626,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -716,36 +656,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>262001</t>
+          <t>010671</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>景顺长城大中华混合(QDII)</t>
+          <t>景顺长城大中华混合(QDII)美元</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>18.62</t>
+          <t>11.21</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>85.28</t>
+          <t>86.95</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.08</t>
+          <t>6.32</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.9459</t>
+          <t>0.7085</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -754,36 +694,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010671</t>
+          <t>262001</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>景顺长城大中华混合(QDII)美元</t>
+          <t>景顺长城大中华混合(QDII)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>18.62</t>
+          <t>11.21</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>85.28</t>
+          <t>86.95</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.08</t>
+          <t>6.32</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.9459</t>
+          <t>0.7085</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -792,36 +732,74 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>040021</t>
+          <t>000927</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华安大中华升级股票(QDII)</t>
+          <t>博时大中华亚太精选股票(QDII) - 美元现汇</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90.91</t>
+          <t>87.88</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.31</t>
+          <t>4.21</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0307</t>
+          <t>0.0131</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>050015</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时大中华亚太精选股票(QDII) -人民币</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -835,7 +813,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -856,7 +834,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -896,26 +874,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>18.71</t>
+          <t>10.35</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>85.40</t>
+          <t>82.59</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.15</t>
+          <t>8.20</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.9636</t>
+          <t>0.8487</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -934,26 +912,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>18.71</t>
+          <t>10.35</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>85.40</t>
+          <t>82.59</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.15</t>
+          <t>8.20</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.9636</t>
+          <t>0.8487</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -962,36 +940,112 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>000927</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时大中华亚太精选股票(QDII) - 美元现汇</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>050015</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时大中华亚太精选股票(QDII) -人民币</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>040021</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>华安大中华升级股票(QDII)</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.40</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.88</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0223</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.37</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1026,7 +1080,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1066,26 +1120,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>13.91</t>
+          <t>12.01</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>85.51</t>
+          <t>75.74</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.51</t>
+          <t>5.89</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4882</t>
+          <t>0.7074</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1104,26 +1158,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>13.91</t>
+          <t>12.01</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>85.51</t>
+          <t>75.74</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.51</t>
+          <t>5.89</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4882</t>
+          <t>0.7074</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1142,26 +1196,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8.61</t>
+          <t>9.27</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>82.07</t>
+          <t>86.13</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2109</t>
+          <t>0.2447</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1180,22 +1234,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>86.77</t>
+          <t>89.05</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.29</t>
+          <t>6.21</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0190</t>
+          <t>0.0199</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1208,32 +1262,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>050015</t>
+          <t>000927</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>博时大中华亚太精选股票(QDII) -人民币</t>
+          <t>博时大中华亚太精选股票(QDII) - 美元现汇</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.15</t>
+          <t>92.50</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.63</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0163</t>
+          <t>0.0170</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1246,32 +1300,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>000927</t>
+          <t>050015</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>博时大中华亚太精选股票(QDII) - 美元现汇</t>
+          <t>博时大中华亚太精选股票(QDII) -人民币</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>92.15</t>
+          <t>92.50</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.63</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0163</t>
+          <t>0.0170</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1310,7 +1364,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1350,26 +1404,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12.01</t>
+          <t>13.91</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>75.74</t>
+          <t>85.51</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.89</t>
+          <t>3.51</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.7074</t>
+          <t>0.4882</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1388,26 +1442,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>12.01</t>
+          <t>13.91</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>75.74</t>
+          <t>85.51</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.89</t>
+          <t>3.51</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.7074</t>
+          <t>0.4882</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1426,26 +1480,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9.27</t>
+          <t>8.61</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>86.13</t>
+          <t>82.07</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2447</t>
+          <t>0.2109</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1464,22 +1518,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>89.05</t>
+          <t>86.77</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.21</t>
+          <t>5.29</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0199</t>
+          <t>0.0190</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1492,32 +1546,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>000927</t>
+          <t>050015</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>博时大中华亚太精选股票(QDII) - 美元现汇</t>
+          <t>博时大中华亚太精选股票(QDII) -人民币</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.50</t>
+          <t>92.15</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>3.63</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0170</t>
+          <t>0.0163</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1530,32 +1584,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>050015</t>
+          <t>000927</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>博时大中华亚太精选股票(QDII) -人民币</t>
+          <t>博时大中华亚太精选股票(QDII) - 美元现汇</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>92.50</t>
+          <t>92.15</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>3.63</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0170</t>
+          <t>0.0163</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1573,7 +1627,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1594,7 +1648,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1634,26 +1688,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10.35</t>
+          <t>18.71</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>82.59</t>
+          <t>85.40</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.20</t>
+          <t>5.15</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.8487</t>
+          <t>0.9636</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1672,26 +1726,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10.35</t>
+          <t>18.71</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>82.59</t>
+          <t>85.40</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.20</t>
+          <t>5.15</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.8487</t>
+          <t>0.9636</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1700,112 +1754,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000927</t>
+          <t>040021</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>博时大中华亚太精选股票(QDII) - 美元现汇</t>
+          <t>华安大中华升级股票(QDII)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.94</t>
+          <t>91.40</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.03</t>
+          <t>5.88</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0161</t>
+          <t>0.0223</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>050015</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>博时大中华亚太精选股票(QDII) -人民币</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.32</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.94</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.03</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0161</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>040021</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华安大中华升级股票(QDII)</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>87.37</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.06</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0132</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1819,7 +1797,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1840,7 +1818,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1870,36 +1848,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010671</t>
+          <t>262001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>景顺长城大中华混合(QDII)美元</t>
+          <t>景顺长城大中华混合(QDII)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>11.21</t>
+          <t>18.62</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>86.95</t>
+          <t>85.28</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.32</t>
+          <t>5.08</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.7085</t>
+          <t>0.9459</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1908,36 +1886,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>262001</t>
+          <t>010671</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>景顺长城大中华混合(QDII)</t>
+          <t>景顺长城大中华混合(QDII)美元</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>11.21</t>
+          <t>18.62</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>86.95</t>
+          <t>85.28</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.32</t>
+          <t>5.08</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.7085</t>
+          <t>0.9459</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1946,74 +1924,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000927</t>
+          <t>040021</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>博时大中华亚太精选股票(QDII) - 美元现汇</t>
+          <t>华安大中华升级股票(QDII)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>87.88</t>
+          <t>90.91</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.21</t>
+          <t>8.31</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0131</t>
+          <t>0.0307</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>050015</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>博时大中华亚太精选股票(QDII) -人民币</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>87.88</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.21</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0131</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2027,144 +1967,204 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.44</v>
+          <t>010671</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3778</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.74</v>
+          <t>262001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3778</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.71</v>
+          <t>457001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国富亚洲机会股票 (QDII)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1871</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>6</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.24</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.95</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>3</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1.92</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>4</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.97</v>
+          <t>040021</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安大中华升级股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/其他/2330-台积电.xlsx
+++ b/数据整理/stocks/其他/2330-台积电.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>1.74</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>1.24</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>1.95</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>4</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.97</v>
       </c>
     </row>
@@ -661,31 +678,31 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>景顺长城大中华混合(QDII)美元</t>
+          <t>景顺长城大中华混合（QDII）美元A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>11.21</t>
+          <t>9.42</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>86.95</t>
+          <t>70.56</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.32</t>
+          <t>7.19</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.7085</t>
+          <t>0.6773</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -699,31 +716,31 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>景顺长城大中华混合(QDII)</t>
+          <t>景顺长城大中华混合（QDII）人民币A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>11.21</t>
+          <t>9.42</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>86.95</t>
+          <t>70.56</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.32</t>
+          <t>7.19</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.7085</t>
+          <t>0.6773</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -732,36 +749,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000927</t>
+          <t>050015</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>博时大中华亚太精选股票(QDII) - 美元现汇</t>
+          <t>博时大中华亚太精选股票（QDII）人民币</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>87.88</t>
+          <t>81.08</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.21</t>
+          <t>6.78</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0131</t>
+          <t>0.0170</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -770,36 +787,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>050015</t>
+          <t>000927</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>博时大中华亚太精选股票(QDII) -人民币</t>
+          <t>博时大中华亚太精选股票（QDII）美元现汇</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>87.88</t>
+          <t>81.08</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.21</t>
+          <t>6.78</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0131</t>
+          <t>0.0170</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -808,6 +825,214 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010671</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.95</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7085</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>262001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.21</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.95</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7085</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000927</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时大中华亚太精选股票(QDII) - 美元现汇</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>050015</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时大中华亚太精选股票(QDII) -人民币</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1046,290 +1271,6 @@
       </c>
       <c r="H6" t="n">
         <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>010671</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>景顺长城大中华混合(QDII)美元</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>12.01</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>75.74</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.89</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.7074</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>262001</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>景顺长城大中华混合(QDII)</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>12.01</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>75.74</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.89</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.7074</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>457001</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国富亚洲机会股票 (QDII)</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>9.27</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>86.13</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.64</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2447</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>040021</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华安大中华升级股票(QDII)</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.32</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>89.05</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>6.21</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0199</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>000927</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>博时大中华亚太精选股票(QDII) - 美元现汇</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.50</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0170</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>050015</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>博时大中华亚太精选股票(QDII) -人民币</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.50</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0170</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1364,7 +1305,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1404,26 +1345,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>13.91</t>
+          <t>12.01</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>85.51</t>
+          <t>75.74</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.51</t>
+          <t>5.89</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4882</t>
+          <t>0.7074</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1442,26 +1383,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>13.91</t>
+          <t>12.01</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>85.51</t>
+          <t>75.74</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.51</t>
+          <t>5.89</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4882</t>
+          <t>0.7074</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1480,26 +1421,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8.61</t>
+          <t>9.27</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>82.07</t>
+          <t>86.13</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2109</t>
+          <t>0.2447</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1518,22 +1459,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>86.77</t>
+          <t>89.05</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.29</t>
+          <t>6.21</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0190</t>
+          <t>0.0199</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1546,32 +1487,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>050015</t>
+          <t>000927</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>博时大中华亚太精选股票(QDII) -人民币</t>
+          <t>博时大中华亚太精选股票(QDII) - 美元现汇</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.15</t>
+          <t>92.50</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.63</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0163</t>
+          <t>0.0170</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1584,32 +1525,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>000927</t>
+          <t>050015</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>博时大中华亚太精选股票(QDII) - 美元现汇</t>
+          <t>博时大中华亚太精选股票(QDII) -人民币</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>92.15</t>
+          <t>92.50</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.63</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0163</t>
+          <t>0.0170</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1627,7 +1568,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1688,26 +1629,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>18.71</t>
+          <t>13.91</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>85.40</t>
+          <t>85.51</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.15</t>
+          <t>3.51</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.9636</t>
+          <t>0.4882</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1726,26 +1667,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>18.71</t>
+          <t>13.91</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>85.40</t>
+          <t>85.51</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.15</t>
+          <t>3.51</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.9636</t>
+          <t>0.4882</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1754,36 +1695,150 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>457001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国富亚洲机会股票 (QDII)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2109</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>040021</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>华安大中华升级股票(QDII)</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.40</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.88</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0223</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.77</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>050015</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时大中华亚太精选股票(QDII) -人民币</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000927</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时大中华亚太精选股票(QDII) - 美元现汇</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1848,32 +1903,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>262001</t>
+          <t>010671</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>景顺长城大中华混合(QDII)</t>
+          <t>景顺长城大中华混合(QDII)美元</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>18.62</t>
+          <t>18.71</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>85.28</t>
+          <t>85.40</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.08</t>
+          <t>5.15</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.9459</t>
+          <t>0.9636</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1886,32 +1941,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010671</t>
+          <t>262001</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>景顺长城大中华混合(QDII)美元</t>
+          <t>景顺长城大中华混合(QDII)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>18.62</t>
+          <t>18.71</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>85.28</t>
+          <t>85.40</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.08</t>
+          <t>5.15</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.9459</t>
+          <t>0.9636</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1934,26 +1989,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90.91</t>
+          <t>91.40</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.31</t>
+          <t>5.88</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0307</t>
+          <t>0.0223</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1962,6 +2017,176 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>262001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.28</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9459</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010671</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.62</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.28</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9459</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>040021</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安大中华升级股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/其他/2330-台积电.xlsx
+++ b/数据整理/stocks/其他/2330-台积电.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>1.39</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>1.74</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>1.24</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>1.95</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="9">
@@ -601,18 +602,242 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>4</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.97</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010671</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3778</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>262001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3778</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>457001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国富亚洲机会股票 (QDII)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1871</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>040021</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安大中华升级股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -622,7 +847,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -683,22 +908,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.42</t>
+          <t>12.44</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>70.56</t>
+          <t>86.89</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.19</t>
+          <t>6.84</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6773</t>
+          <t>0.8509</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -721,22 +946,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9.42</t>
+          <t>12.42</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>70.56</t>
+          <t>86.89</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.19</t>
+          <t>6.84</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.6773</t>
+          <t>0.8495</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -749,36 +974,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>050015</t>
+          <t>000927</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>博时大中华亚太精选股票（QDII）人民币</t>
+          <t>博时大中华亚太精选股票（QDII）美元现汇</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>81.08</t>
+          <t>88.48</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.78</t>
+          <t>6.48</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0170</t>
+          <t>0.0181</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -787,36 +1012,74 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000927</t>
+          <t>050015</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>博时大中华亚太精选股票（QDII）美元现汇</t>
+          <t>博时大中华亚太精选股票（QDII）人民币</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>81.08</t>
+          <t>88.48</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.78</t>
+          <t>6.48</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0170</t>
+          <t>0.0181</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>016988</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合（QDII）人民币C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.89</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -886,31 +1149,31 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>景顺长城大中华混合(QDII)美元</t>
+          <t>景顺长城大中华混合（QDII）美元A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>11.21</t>
+          <t>9.42</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>86.95</t>
+          <t>70.56</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.32</t>
+          <t>7.19</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.7085</t>
+          <t>0.6773</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -924,31 +1187,31 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>景顺长城大中华混合(QDII)</t>
+          <t>景顺长城大中华混合（QDII）人民币A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>11.21</t>
+          <t>9.42</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>86.95</t>
+          <t>70.56</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.32</t>
+          <t>7.19</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.7085</t>
+          <t>0.6773</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -957,36 +1220,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000927</t>
+          <t>050015</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>博时大中华亚太精选股票(QDII) - 美元现汇</t>
+          <t>博时大中华亚太精选股票（QDII）人民币</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>87.88</t>
+          <t>81.08</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.21</t>
+          <t>6.78</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0131</t>
+          <t>0.0170</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -995,36 +1258,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>050015</t>
+          <t>000927</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>博时大中华亚太精选股票(QDII) -人民币</t>
+          <t>博时大中华亚太精选股票（QDII）美元现汇</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>87.88</t>
+          <t>81.08</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.21</t>
+          <t>6.78</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0131</t>
+          <t>0.0170</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1033,6 +1296,214 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010671</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.95</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7085</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>262001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.21</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.95</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7085</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000927</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时大中华亚太精选股票(QDII) - 美元现汇</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>050015</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时大中华亚太精选股票(QDII) -人民币</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1271,290 +1742,6 @@
       </c>
       <c r="H6" t="n">
         <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>010671</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>景顺长城大中华混合(QDII)美元</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>12.01</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>75.74</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.89</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.7074</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>262001</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>景顺长城大中华混合(QDII)</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>12.01</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>75.74</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.89</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.7074</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>457001</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国富亚洲机会股票 (QDII)</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>9.27</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>86.13</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.64</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2447</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>040021</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华安大中华升级股票(QDII)</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.32</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>89.05</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>6.21</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0199</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>000927</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>博时大中华亚太精选股票(QDII) - 美元现汇</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.50</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0170</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>050015</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>博时大中华亚太精选股票(QDII) -人民币</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.50</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0170</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1589,7 +1776,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1629,26 +1816,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>13.91</t>
+          <t>12.01</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>85.51</t>
+          <t>75.74</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.51</t>
+          <t>5.89</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4882</t>
+          <t>0.7074</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1667,26 +1854,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>13.91</t>
+          <t>12.01</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>85.51</t>
+          <t>75.74</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.51</t>
+          <t>5.89</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4882</t>
+          <t>0.7074</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1705,26 +1892,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8.61</t>
+          <t>9.27</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>82.07</t>
+          <t>86.13</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2109</t>
+          <t>0.2447</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1743,22 +1930,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>86.77</t>
+          <t>89.05</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.29</t>
+          <t>6.21</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0190</t>
+          <t>0.0199</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1771,32 +1958,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>050015</t>
+          <t>000927</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>博时大中华亚太精选股票(QDII) -人民币</t>
+          <t>博时大中华亚太精选股票(QDII) - 美元现汇</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.15</t>
+          <t>92.50</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.63</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0163</t>
+          <t>0.0170</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1809,32 +1996,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>000927</t>
+          <t>050015</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>博时大中华亚太精选股票(QDII) - 美元现汇</t>
+          <t>博时大中华亚太精选股票(QDII) -人民币</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>92.15</t>
+          <t>92.50</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.63</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0163</t>
+          <t>0.0170</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1852,7 +2039,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1913,26 +2100,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>18.71</t>
+          <t>13.91</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>85.40</t>
+          <t>85.51</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.15</t>
+          <t>3.51</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.9636</t>
+          <t>0.4882</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1951,26 +2138,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>18.71</t>
+          <t>13.91</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>85.40</t>
+          <t>85.51</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.15</t>
+          <t>3.51</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.9636</t>
+          <t>0.4882</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1979,36 +2166,150 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>457001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国富亚洲机会股票 (QDII)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2109</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>040021</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>华安大中华升级股票(QDII)</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.40</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.88</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0223</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.77</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>050015</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时大中华亚太精选股票(QDII) -人民币</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000927</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时大中华亚太精选股票(QDII) - 美元现汇</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -2073,32 +2374,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>262001</t>
+          <t>010671</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>景顺长城大中华混合(QDII)</t>
+          <t>景顺长城大中华混合(QDII)美元</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>18.62</t>
+          <t>18.71</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>85.28</t>
+          <t>85.40</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.08</t>
+          <t>5.15</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.9459</t>
+          <t>0.9636</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -2111,32 +2412,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010671</t>
+          <t>262001</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>景顺长城大中华混合(QDII)美元</t>
+          <t>景顺长城大中华混合(QDII)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>18.62</t>
+          <t>18.71</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>85.28</t>
+          <t>85.40</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.08</t>
+          <t>5.15</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.9459</t>
+          <t>0.9636</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -2159,26 +2460,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90.91</t>
+          <t>91.40</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.31</t>
+          <t>5.88</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0307</t>
+          <t>0.0223</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2192,204 +2493,166 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>基金金额</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>262001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.28</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9459</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>010671</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>景顺长城大中华混合(QDII)美元</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>5.69</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.90</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.64</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.3778</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.62</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.28</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9459</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>040021</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安大中华升级股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>262001</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>景顺长城大中华混合(QDII)</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>5.69</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.90</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.64</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.3778</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>457001</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国富亚洲机会股票 (QDII)</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>7.17</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.66</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1871</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>040021</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华安大中华升级股票(QDII)</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.47</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>6.71</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0295</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>